--- a/Data/EC/NIT-9008130312.xlsx
+++ b/Data/EC/NIT-9008130312.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF35CA43-DE85-4F00-B90E-3D32BD9D836A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73ACB223-C1FE-4965-A4C3-00675F3A117E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F9D66B71-E507-4DCB-8232-FDC159ED95FD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2D9A0976-EA63-44E3-9CDE-CDCAA38B285C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="90">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,220 +65,214 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1143368571</t>
-  </si>
-  <si>
-    <t>BRAYAN ANTONIO ELLES MORALES</t>
+    <t>20145783</t>
+  </si>
+  <si>
+    <t>ROBERTO CARLOS SALCEDO YEPES</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>73138768</t>
+  </si>
+  <si>
+    <t>MIGUEL JULIO CAÑATE</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
   </si>
   <si>
     <t>1911</t>
   </si>
   <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>73138768</t>
-  </si>
-  <si>
-    <t>MIGUEL JULIO CAÑATE</t>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
   </si>
   <si>
     <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>20145783</t>
-  </si>
-  <si>
-    <t>ROBERTO CARLOS SALCEDO YEPES</t>
-  </si>
-  <si>
-    <t>1806</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -377,7 +371,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -390,9 +386,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -592,23 +586,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,10 +630,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -692,7 +686,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7DFFD3E-08D4-D19F-6804-38D8EB2374BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD16BF22-7D9E-E306-2176-884732A4BC8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1043,8 +1037,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA76BB4-C105-417E-83D8-CA3A0FBEB094}">
-  <dimension ref="B2:J94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B785D5CE-E67B-41F1-98B4-C913E1E2BCDF}">
+  <dimension ref="B2:J87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1068,7 +1062,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1113,7 +1107,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1145,12 +1139,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2258261</v>
+        <v>2039518</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1161,14 +1155,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F13" s="5">
         <v>66</v>
@@ -1198,13 +1192,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1221,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>19791</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1235,13 +1229,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>31249</v>
@@ -1258,13 +1252,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>31249</v>
@@ -1281,13 +1275,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>31249</v>
@@ -1304,13 +1298,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
@@ -1327,13 +1321,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1350,13 +1344,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>31249</v>
@@ -1373,16 +1367,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>19791</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1396,10 +1390,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>21</v>
@@ -1419,10 +1413,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>22</v>
@@ -1442,10 +1436,10 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>23</v>
@@ -1465,10 +1459,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>24</v>
@@ -1488,10 +1482,10 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>25</v>
@@ -1511,10 +1505,10 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>26</v>
@@ -1534,10 +1528,10 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>27</v>
@@ -1557,10 +1551,10 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>28</v>
@@ -1580,10 +1574,10 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>29</v>
@@ -1603,10 +1597,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>30</v>
@@ -1626,10 +1620,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>31</v>
@@ -1649,10 +1643,10 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>32</v>
@@ -1672,10 +1666,10 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>33</v>
@@ -1695,10 +1689,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>34</v>
@@ -1718,10 +1712,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>35</v>
@@ -1741,10 +1735,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>36</v>
@@ -1764,10 +1758,10 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>37</v>
@@ -1787,10 +1781,10 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>38</v>
@@ -1810,10 +1804,10 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>39</v>
@@ -1833,10 +1827,10 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>40</v>
@@ -1856,10 +1850,10 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>41</v>
@@ -1879,10 +1873,10 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>42</v>
@@ -1902,10 +1896,10 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>43</v>
@@ -1925,10 +1919,10 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>44</v>
@@ -1948,10 +1942,10 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>45</v>
@@ -1971,10 +1965,10 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>46</v>
@@ -1994,10 +1988,10 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>47</v>
@@ -2017,10 +2011,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>48</v>
@@ -2040,10 +2034,10 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>49</v>
@@ -2063,10 +2057,10 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>50</v>
@@ -2086,10 +2080,10 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>51</v>
@@ -2109,10 +2103,10 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>52</v>
@@ -2132,10 +2126,10 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>53</v>
@@ -2155,10 +2149,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>54</v>
@@ -2178,10 +2172,10 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>55</v>
@@ -2201,10 +2195,10 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>56</v>
@@ -2224,10 +2218,10 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>57</v>
@@ -2247,10 +2241,10 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>58</v>
@@ -2270,10 +2264,10 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>59</v>
@@ -2293,10 +2287,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>60</v>
@@ -2316,10 +2310,10 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>61</v>
@@ -2339,10 +2333,10 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>62</v>
@@ -2362,10 +2356,10 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>63</v>
@@ -2385,10 +2379,10 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>64</v>
@@ -2408,10 +2402,10 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>65</v>
@@ -2431,10 +2425,10 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>66</v>
@@ -2454,10 +2448,10 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>67</v>
@@ -2477,10 +2471,10 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>68</v>
@@ -2500,13 +2494,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2523,13 +2517,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2546,13 +2540,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2569,13 +2563,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2592,13 +2586,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2615,13 +2609,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2638,13 +2632,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2661,13 +2655,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2684,13 +2678,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2703,217 +2697,56 @@
       <c r="J80" s="20"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F81" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G81" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B82" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F82" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G82" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F83" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G83" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F84" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G84" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F85" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G85" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="B81" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" s="24">
+        <v>19791</v>
+      </c>
+      <c r="G81" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="26"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F86" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G86" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="B86" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="32"/>
+      <c r="H86" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F87" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G87" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E88" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F88" s="24">
-        <v>19791</v>
-      </c>
-      <c r="G88" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B93" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C93" s="32"/>
-      <c r="H93" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="32" t="s">
+      <c r="B87" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" s="32"/>
+      <c r="H87" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="32"/>
-      <c r="H94" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H86:J86"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
